--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1614,17 +1614,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="204.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="175.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1633,25 +1633,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="230.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-device.xlsx
+++ b/fhir/StructureDefinition-ehealth-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -346,7 +346,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -518,7 +518,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1087,7 +1087,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1147,7 +1147,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1209,7 +1209,7 @@
     <t>Device.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1639,7 +1639,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="36.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
